--- a/covid.xlsx
+++ b/covid.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
   <si>
     <t>AÑO</t>
   </si>
@@ -28,10 +28,19 @@
     <t>TOTAL</t>
   </si>
   <si>
+    <t>INTERVALO</t>
+  </si>
+  <si>
+    <t>DICIEMBRE_ENERO</t>
+  </si>
+  <si>
     <t>2020</t>
   </si>
   <si>
-    <t>COVID</t>
+    <t>Casos de Covid</t>
+  </si>
+  <si>
+    <t>+900 %</t>
   </si>
 </sst>
 </file>
@@ -392,16 +401,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="6" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -414,173 +423,251 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
+        <v>119</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
+        <v>1105</v>
+      </c>
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
+        <v>6969</v>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
+        <v>19138</v>
+      </c>
+      <c r="E6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>46530</v>
+      </c>
+      <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>87482</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
+        <v>118644</v>
+      </c>
+      <c r="E9" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>113738</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>106377</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>87098</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1">
+        <v>142211</v>
+      </c>
+      <c r="E13" s="1">
         <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/covid.xlsx
+++ b/covid.xlsx
@@ -441,7 +441,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -461,7 +461,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -481,7 +481,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>1105</v>
+        <v>643</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="1">
-        <v>6969</v>
+        <v>4245</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -521,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>19138</v>
+        <v>13178</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -541,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="1">
-        <v>46530</v>
+        <v>31192</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
@@ -561,7 +561,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1">
-        <v>87482</v>
+        <v>49358</v>
       </c>
       <c r="E8" s="1">
         <v>7</v>
@@ -581,10 +581,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>118644</v>
+        <v>57396</v>
       </c>
       <c r="E9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -601,10 +601,10 @@
         <v>7</v>
       </c>
       <c r="D10" s="1">
-        <v>113738</v>
+        <v>52179</v>
       </c>
       <c r="E10" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -621,10 +621,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>106377</v>
+        <v>52403</v>
       </c>
       <c r="E11" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -641,10 +641,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="1">
-        <v>87098</v>
+        <v>44221</v>
       </c>
       <c r="E12" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -661,7 +661,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="1">
-        <v>142211</v>
+        <v>78714</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>

--- a/covid.xlsx
+++ b/covid.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
   <si>
     <t>AÑO</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Casos de Covid</t>
-  </si>
-  <si>
-    <t>+900 %</t>
   </si>
 </sst>
 </file>
@@ -446,9 +443,6 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -466,9 +460,6 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
@@ -486,9 +477,6 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
@@ -506,9 +494,6 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
@@ -526,9 +511,6 @@
       <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -546,9 +528,6 @@
       <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
@@ -566,9 +545,6 @@
       <c r="E8" s="1">
         <v>7</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
@@ -586,9 +562,6 @@
       <c r="E9" s="1">
         <v>8</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
@@ -606,9 +579,6 @@
       <c r="E10" s="1">
         <v>7</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
@@ -626,9 +596,6 @@
       <c r="E11" s="1">
         <v>7</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
@@ -646,9 +613,6 @@
       <c r="E12" s="1">
         <v>6</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
@@ -665,9 +629,6 @@
       </c>
       <c r="E13" s="1">
         <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/covid.xlsx
+++ b/covid.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
   <si>
     <t>AÑO</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Casos de Covid</t>
+  </si>
+  <si>
+    <t>+900 %</t>
   </si>
 </sst>
 </file>
@@ -443,6 +446,9 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -460,6 +466,9 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
@@ -477,6 +486,9 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
@@ -494,6 +506,9 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
@@ -511,6 +526,9 @@
       <c r="E6" s="1">
         <v>2</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -528,6 +546,9 @@
       <c r="E7" s="1">
         <v>4</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
@@ -545,6 +566,9 @@
       <c r="E8" s="1">
         <v>7</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
@@ -562,6 +586,9 @@
       <c r="E9" s="1">
         <v>8</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
@@ -579,6 +606,9 @@
       <c r="E10" s="1">
         <v>7</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
@@ -596,6 +626,9 @@
       <c r="E11" s="1">
         <v>7</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
@@ -613,6 +646,9 @@
       <c r="E12" s="1">
         <v>6</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
@@ -629,6 +665,9 @@
       </c>
       <c r="E13" s="1">
         <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/covid.xlsx
+++ b/covid.xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
   <si>
-    <t>AÑO</t>
-  </si>
-  <si>
-    <t>MES</t>
-  </si>
-  <si>
-    <t>TIPO</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>INTERVALO</t>
-  </si>
-  <si>
-    <t>DICIEMBRE_ENERO</t>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intervalo</t>
+  </si>
+  <si>
+    <t>Diciembre Vs Enero</t>
   </si>
   <si>
     <t>2020</t>
